--- a/beer.xlsx
+++ b/beer.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9c50290784c4eeb/Documents/R/Beer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="13_ncr:1_{C9A6D7E1-ED12-46E2-A1B0-9A8235C60E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{827CE52B-9F0D-49DB-B0BA-BA58A6B6DDC1}"/>
+  <xr:revisionPtr revIDLastSave="982" documentId="13_ncr:1_{C9A6D7E1-ED12-46E2-A1B0-9A8235C60E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9456CAF1-0BBE-4017-BDAF-34658250BC82}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$255</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="411">
   <si>
     <t>Brewery</t>
   </si>
@@ -132,12 +135,6 @@
     <t>Black Sheep</t>
   </si>
   <si>
-    <t>Milk Stout</t>
-  </si>
-  <si>
-    <t>Stout</t>
-  </si>
-  <si>
     <t>Bath</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>I know you know we know</t>
   </si>
   <si>
-    <t>Sling it out stout</t>
-  </si>
-  <si>
     <t>Faith in Futures</t>
   </si>
   <si>
@@ -759,9 +753,6 @@
     <t>Ten Eighty</t>
   </si>
   <si>
-    <t>Stout About It</t>
-  </si>
-  <si>
     <t>Salted caramel Star</t>
   </si>
   <si>
@@ -1129,6 +1120,156 @@
   </si>
   <si>
     <t>Franziskaner</t>
+  </si>
+  <si>
+    <t>Beatnikz Republic</t>
+  </si>
+  <si>
+    <t>Only Gig in Paris</t>
+  </si>
+  <si>
+    <t>By the Horns</t>
+  </si>
+  <si>
+    <t>Doozie</t>
+  </si>
+  <si>
+    <t>Headwave</t>
+  </si>
+  <si>
+    <t>Flavourly</t>
+  </si>
+  <si>
+    <t>Freedom</t>
+  </si>
+  <si>
+    <t>Dizzy Blonde</t>
+  </si>
+  <si>
+    <t>Tropical Sour</t>
+  </si>
+  <si>
+    <t>Pictish</t>
+  </si>
+  <si>
+    <t>Porter</t>
+  </si>
+  <si>
+    <t>Cape Point</t>
+  </si>
+  <si>
+    <t>Abbeydale</t>
+  </si>
+  <si>
+    <t>Heathen</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>Stay Puft</t>
+  </si>
+  <si>
+    <t>Timothy Taylor</t>
+  </si>
+  <si>
+    <t>Landlord</t>
+  </si>
+  <si>
+    <t>Triple Vision</t>
+  </si>
+  <si>
+    <t>La Choufe</t>
+  </si>
+  <si>
+    <t>Blond</t>
+  </si>
+  <si>
+    <t>Duvel</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>Lefebvre</t>
+  </si>
+  <si>
+    <t>Blache de Bruxelles</t>
+  </si>
+  <si>
+    <t>Cherry Pi</t>
+  </si>
+  <si>
+    <t>Made in the shade</t>
+  </si>
+  <si>
+    <t>Boddingtons</t>
+  </si>
+  <si>
+    <t>Pub Ale</t>
+  </si>
+  <si>
+    <t>Titanic</t>
+  </si>
+  <si>
+    <t>Rasberry Pale</t>
+  </si>
+  <si>
+    <t>Stancill</t>
+  </si>
+  <si>
+    <t>Barnsley Bitter</t>
+  </si>
+  <si>
+    <t>Arkell's</t>
+  </si>
+  <si>
+    <t>Kingsdown Special Ale</t>
+  </si>
+  <si>
+    <t>Windsor &amp; Eton</t>
+  </si>
+  <si>
+    <t>Father Thames</t>
+  </si>
+  <si>
+    <t>Green Mountain</t>
+  </si>
+  <si>
+    <t>Wicked Weed</t>
+  </si>
+  <si>
+    <t>Serenity</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>Federation</t>
+  </si>
+  <si>
+    <t>A Wing and a Prayer</t>
+  </si>
+  <si>
+    <t>ABK</t>
+  </si>
+  <si>
+    <t>Hefeweizen Anno 25</t>
+  </si>
+  <si>
+    <t>Electric Currant</t>
+  </si>
+  <si>
+    <t>Stout/Porter</t>
+  </si>
+  <si>
+    <t>Milk Stout/Porter</t>
+  </si>
+  <si>
+    <t>Stout/Porter About It</t>
+  </si>
+  <si>
+    <t>Sling it out Stout/Porter</t>
   </si>
 </sst>
 </file>
@@ -1482,11 +1623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,18 +1661,18 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2">
         <v>4.5</v>
@@ -1548,13 +1689,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" t="s">
         <v>188</v>
-      </c>
-      <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" t="s">
-        <v>190</v>
       </c>
       <c r="D3">
         <v>4.4000000000000004</v>
@@ -1571,13 +1712,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>4.0999999999999996</v>
@@ -1597,13 +1738,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5">
         <v>4.9000000000000004</v>
@@ -1620,10 +1761,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -1646,13 +1787,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7">
         <v>7.3</v>
@@ -1669,13 +1810,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>4.0999999999999996</v>
@@ -1695,13 +1836,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D9">
         <v>4.9000000000000004</v>
@@ -1718,13 +1859,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D10">
         <v>6.5</v>
@@ -1741,13 +1882,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>3.8</v>
@@ -1764,13 +1905,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>3.8</v>
@@ -1787,13 +1928,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>5.7</v>
@@ -1813,10 +1954,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1836,13 +1977,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D15">
         <v>3.8</v>
@@ -1862,10 +2003,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1888,10 +2029,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -1911,10 +2052,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
@@ -1934,13 +2075,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1957,13 +2098,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1980,10 +2121,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -2006,13 +2147,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -2032,13 +2173,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>4.8</v>
@@ -2055,13 +2196,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D24">
         <v>4.4000000000000004</v>
@@ -2078,13 +2219,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>3.8</v>
@@ -2101,13 +2242,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -2127,13 +2268,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D27">
         <v>3.8</v>
@@ -2150,13 +2291,13 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28">
         <v>3.6</v>
@@ -2173,10 +2314,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -2199,10 +2340,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -2225,13 +2366,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D31">
         <v>4.5</v>
@@ -2251,13 +2392,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D32">
         <v>4.2</v>
@@ -2277,13 +2418,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33">
         <v>4.8</v>
@@ -2300,10 +2441,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -2326,13 +2467,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
       </c>
       <c r="D35">
         <v>5.4</v>
@@ -2352,13 +2493,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -2378,13 +2519,13 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D37">
         <v>5.6</v>
@@ -2404,13 +2545,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D38">
         <v>3.8</v>
@@ -2433,10 +2574,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39">
         <v>5.2</v>
@@ -2456,13 +2597,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -2479,13 +2620,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41">
         <v>4.5</v>
@@ -2508,10 +2649,10 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D42">
         <v>5.2</v>
@@ -2531,13 +2672,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -2554,13 +2695,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44">
         <v>5.5</v>
@@ -2580,13 +2721,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45">
         <v>5.3</v>
@@ -2603,13 +2744,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>5.9</v>
@@ -2632,10 +2773,10 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47">
         <v>5.5</v>
@@ -2655,13 +2796,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D48">
         <v>4.2</v>
@@ -2681,10 +2822,10 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>4.4000000000000004</v>
@@ -2704,13 +2845,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D50">
         <v>5.6</v>
@@ -2730,13 +2871,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51">
         <v>4.5999999999999996</v>
@@ -2756,13 +2897,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52">
         <v>4.2</v>
@@ -2782,13 +2923,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D53">
         <v>4.8</v>
@@ -2805,13 +2946,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D54">
         <v>4.4000000000000004</v>
@@ -2828,13 +2969,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D55">
         <v>4.8</v>
@@ -2854,13 +2995,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D56">
         <v>5.4</v>
@@ -2880,13 +3021,13 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D57">
         <v>3.8</v>
@@ -2903,13 +3044,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D58">
         <v>4</v>
@@ -2926,10 +3067,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -2949,13 +3090,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D60">
         <v>3.6</v>
@@ -2972,13 +3113,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D61">
         <v>3.3</v>
@@ -2995,13 +3136,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D62">
         <v>6</v>
@@ -3018,13 +3159,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63">
         <v>3.4</v>
@@ -3041,13 +3182,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" t="s">
         <v>97</v>
       </c>
-      <c r="B64" t="s">
-        <v>99</v>
-      </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D64">
         <v>4.3</v>
@@ -3067,13 +3208,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65">
         <v>4.5</v>
@@ -3090,13 +3231,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66">
         <v>5.6</v>
@@ -3113,10 +3254,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -3136,13 +3277,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D68">
         <v>7.5</v>
@@ -3159,13 +3300,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69">
         <v>5.5</v>
@@ -3182,13 +3323,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D70">
         <v>6.2</v>
@@ -3211,10 +3352,10 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D71">
         <v>3.8</v>
@@ -3234,13 +3375,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D72">
         <v>4.5999999999999996</v>
@@ -3257,13 +3398,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D73">
         <v>5.9</v>
@@ -3283,13 +3424,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -3309,10 +3450,10 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D75">
         <v>7</v>
@@ -3332,13 +3473,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>77</v>
-      </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D76">
         <v>3.9</v>
@@ -3355,13 +3496,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D77">
         <v>4.7</v>
@@ -3378,13 +3519,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D78">
         <v>7</v>
@@ -3404,13 +3545,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
         <v>69</v>
-      </c>
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" t="s">
-        <v>71</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -3427,13 +3568,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D80">
         <v>8.4</v>
@@ -3453,13 +3594,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" t="s">
         <v>74</v>
       </c>
-      <c r="B81" t="s">
-        <v>76</v>
-      </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D81">
         <v>4.5999999999999996</v>
@@ -3476,13 +3617,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D82">
         <v>4.7</v>
@@ -3502,13 +3643,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D83">
         <v>4.5999999999999996</v>
@@ -3531,10 +3672,10 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D84">
         <v>5</v>
@@ -3551,10 +3692,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" t="s">
         <v>56</v>
-      </c>
-      <c r="B85" t="s">
-        <v>58</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
@@ -3574,13 +3715,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D86">
         <v>4.2</v>
@@ -3597,13 +3738,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" t="s">
         <v>59</v>
       </c>
-      <c r="B87" t="s">
-        <v>61</v>
-      </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D87">
         <v>4.5999999999999996</v>
@@ -3620,13 +3761,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D88">
         <v>5.8</v>
@@ -3646,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D89">
         <v>4.7</v>
@@ -3666,13 +3807,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D90">
         <v>4.2</v>
@@ -3692,13 +3833,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" t="s">
         <v>45</v>
-      </c>
-      <c r="B91" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" t="s">
-        <v>47</v>
       </c>
       <c r="D91">
         <v>5.4</v>
@@ -3718,13 +3859,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D92">
         <v>5.7</v>
@@ -3744,10 +3885,10 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D93">
         <v>6.5</v>
@@ -3767,13 +3908,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -3790,13 +3931,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D95">
         <v>5.8</v>
@@ -3816,13 +3957,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D96">
         <v>6.6</v>
@@ -3842,13 +3983,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D97">
         <v>4.4000000000000004</v>
@@ -3868,13 +4009,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D98">
         <v>4.0999999999999996</v>
@@ -3894,10 +4035,10 @@
         <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D99">
         <v>4.4000000000000004</v>
@@ -3920,7 +4061,7 @@
         <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D100">
         <v>4.2</v>
@@ -3943,7 +4084,7 @@
         <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D101">
         <v>6.6</v>
@@ -3963,13 +4104,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D102">
         <v>4.0999999999999996</v>
@@ -4018,7 +4159,7 @@
         <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D104">
         <v>5.7</v>
@@ -4070,7 +4211,7 @@
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D106">
         <v>3.7</v>
@@ -4093,7 +4234,7 @@
         <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -4116,7 +4257,7 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D108">
         <v>3.8</v>
@@ -4139,7 +4280,7 @@
         <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D109">
         <v>4.2</v>
@@ -4162,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D110">
         <v>3.6</v>
@@ -4185,7 +4326,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D111">
         <v>4.2</v>
@@ -4208,7 +4349,7 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D112">
         <v>6.8</v>
@@ -4231,10 +4372,10 @@
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D113">
         <v>4.7</v>
@@ -4254,10 +4395,10 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D114">
         <v>4.5</v>
@@ -4274,13 +4415,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D115">
         <v>4.8</v>
@@ -4297,13 +4438,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D116">
         <v>10</v>
@@ -4323,13 +4464,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -4346,13 +4487,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D118">
         <v>3.9</v>
@@ -4369,13 +4510,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C119" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D119">
         <v>4.5</v>
@@ -4392,13 +4533,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D120">
         <v>4</v>
@@ -4438,13 +4579,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -4464,10 +4605,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D123">
         <v>4.5</v>
@@ -4484,13 +4625,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D124">
         <v>5.2</v>
@@ -4507,13 +4648,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B125" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D125">
         <v>5.2</v>
@@ -4530,13 +4671,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C126" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -4556,10 +4697,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D127">
         <v>5.2</v>
@@ -4579,10 +4720,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C128" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D128">
         <v>4.2</v>
@@ -4599,13 +4740,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D129">
         <v>3.8</v>
@@ -4622,10 +4763,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
@@ -4651,10 +4792,10 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C131" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D131">
         <v>6.8</v>
@@ -4671,13 +4812,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C132" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D132">
         <v>4</v>
@@ -4694,13 +4835,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D133">
         <v>4.2</v>
@@ -4717,13 +4858,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B134" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C134" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D134">
         <v>3.8</v>
@@ -4740,13 +4881,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B135" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D135">
         <v>4.7</v>
@@ -4766,13 +4907,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C136" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D136">
         <v>10</v>
@@ -4792,13 +4933,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -4818,13 +4959,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D138">
         <v>4.4000000000000004</v>
@@ -4844,13 +4985,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D139">
         <v>3.9</v>
@@ -4867,10 +5008,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -4890,13 +5031,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D141">
         <v>5.7</v>
@@ -4916,10 +5057,10 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D142">
         <v>5.3</v>
@@ -4939,13 +5080,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D143">
         <v>8</v>
@@ -4962,13 +5103,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C144" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D144">
         <v>6.5</v>
@@ -4985,13 +5126,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B145" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C145" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -5008,13 +5149,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" t="s">
         <v>209</v>
       </c>
-      <c r="B146" t="s">
-        <v>211</v>
-      </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D146">
         <v>10</v>
@@ -5034,10 +5175,10 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>212</v>
+        <v>410</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D147">
         <v>5.5</v>
@@ -5054,13 +5195,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B148" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C148" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D148">
         <v>5.3</v>
@@ -5077,13 +5218,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C149" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D149">
         <v>6.8</v>
@@ -5100,13 +5241,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B150" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C150" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D150">
         <v>5.2</v>
@@ -5123,13 +5264,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D151">
         <v>5</v>
@@ -5146,13 +5287,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D152">
         <v>4.5</v>
@@ -5169,13 +5310,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C153" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D153">
         <v>7.2</v>
@@ -5192,13 +5333,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B154" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C154" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D154">
         <v>4.5</v>
@@ -5215,13 +5356,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B155" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C155" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D155">
         <v>5.5</v>
@@ -5241,13 +5382,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C156" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D156">
         <v>4</v>
@@ -5264,13 +5405,13 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B157" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C157" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D157">
         <v>4.5</v>
@@ -5287,13 +5428,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C158" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D158">
         <v>7.2</v>
@@ -5310,13 +5451,13 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B159" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C159" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D159">
         <v>8</v>
@@ -5336,13 +5477,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C160" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D160">
         <v>4.3</v>
@@ -5362,10 +5503,10 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -5388,10 +5529,10 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
@@ -5414,10 +5555,10 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -5440,10 +5581,10 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C164" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D164">
         <v>6</v>
@@ -5460,13 +5601,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B165" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D165">
         <v>6.2</v>
@@ -5486,13 +5627,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B166" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C166" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D166">
         <v>4.5</v>
@@ -5509,13 +5650,13 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B167" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C167" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D167">
         <v>5.2</v>
@@ -5532,13 +5673,13 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B168" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C168" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D168">
         <v>4.0999999999999996</v>
@@ -5558,13 +5699,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B169" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C169" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D169">
         <v>7.4</v>
@@ -5581,13 +5722,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C170" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D170">
         <v>5.6</v>
@@ -5607,13 +5748,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C171" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D171">
         <v>4</v>
@@ -5630,10 +5771,10 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B172" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C172" t="s">
         <v>22</v>
@@ -5653,13 +5794,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B173" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C173" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D173">
         <v>8</v>
@@ -5679,13 +5820,13 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B174" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C174" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D174">
         <v>8</v>
@@ -5705,13 +5846,13 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C175" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D175">
         <v>3.7</v>
@@ -5728,13 +5869,13 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B176" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C176" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D176">
         <v>4.4000000000000004</v>
@@ -5751,13 +5892,13 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B177" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C177" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D177">
         <v>4.0999999999999996</v>
@@ -5774,13 +5915,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B178" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C178" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D178">
         <v>4.5999999999999996</v>
@@ -5797,13 +5938,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C179" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D179">
         <v>3.9</v>
@@ -5820,13 +5961,13 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C180" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D180">
         <v>4.5</v>
@@ -5843,13 +5984,13 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C181" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D181">
         <v>3.8</v>
@@ -5866,13 +6007,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B182" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C182" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D182">
         <v>8</v>
@@ -5889,13 +6030,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B183" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D183">
         <v>8</v>
@@ -5915,10 +6056,10 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C184" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D184">
         <v>6.5</v>
@@ -5941,10 +6082,10 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C185" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D185">
         <v>9.5</v>
@@ -5964,13 +6105,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B186" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C186" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D186">
         <v>5.3</v>
@@ -5987,13 +6128,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B187" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C187" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D187">
         <v>6.8</v>
@@ -6010,13 +6151,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B188" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D188">
         <v>6.5</v>
@@ -6036,13 +6177,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B189" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D189">
         <v>11</v>
@@ -6062,13 +6203,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>299</v>
+      </c>
+      <c r="B190" t="s">
         <v>303</v>
       </c>
-      <c r="B190" t="s">
-        <v>307</v>
-      </c>
       <c r="C190" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D190">
         <v>4.5999999999999996</v>
@@ -6085,13 +6226,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B191" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D191">
         <v>4.3</v>
@@ -6108,13 +6249,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B192" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C192" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D192">
         <v>5</v>
@@ -6134,13 +6275,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B193" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C193" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D193">
         <v>6</v>
@@ -6157,13 +6298,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B194" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C194" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D194">
         <v>3.8</v>
@@ -6180,13 +6321,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B195" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C195" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D195">
         <v>8.5</v>
@@ -6203,13 +6344,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B196" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D196">
         <v>5</v>
@@ -6226,13 +6367,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B197" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C197" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D197">
         <v>11.3</v>
@@ -6252,13 +6393,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B198" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C198" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D198">
         <v>4.2</v>
@@ -6275,13 +6416,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B199" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C199" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D199">
         <v>4</v>
@@ -6301,10 +6442,10 @@
         <v>17</v>
       </c>
       <c r="B200" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C200" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D200">
         <v>4.4000000000000004</v>
@@ -6321,13 +6462,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B201" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C201" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D201">
         <v>5.2</v>
@@ -6344,13 +6485,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B202" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C202" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D202">
         <v>6.5</v>
@@ -6367,13 +6508,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B203" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D203">
         <v>4.5</v>
@@ -6390,10 +6531,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B204" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C204" t="s">
         <v>22</v>
@@ -6416,13 +6557,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B205" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C205" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D205">
         <v>4.3</v>
@@ -6442,13 +6583,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C206" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D206">
         <v>5</v>
@@ -6465,13 +6606,13 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B207" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C207" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D207">
         <v>4.5</v>
@@ -6488,13 +6629,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B208" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D208">
         <v>5</v>
@@ -6511,13 +6652,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B209" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C209" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D209">
         <v>4.5</v>
@@ -6537,13 +6678,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B210" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C210" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D210">
         <v>4</v>
@@ -6563,13 +6704,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B211" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C211" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D211">
         <v>7</v>
@@ -6586,13 +6727,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B212" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C212" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D212">
         <v>5</v>
@@ -6609,13 +6750,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B213" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C213" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D213">
         <v>3.5</v>
@@ -6632,13 +6773,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B214" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C214" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D214">
         <v>5.2</v>
@@ -6655,13 +6796,13 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B215" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C215" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D215">
         <v>5</v>
@@ -6678,13 +6819,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B216" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C216" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D216">
         <v>4.5</v>
@@ -6701,13 +6842,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B217" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C217" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D217">
         <v>4.5</v>
@@ -6724,13 +6865,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C218" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D218">
         <v>3.8</v>
@@ -6750,10 +6891,10 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C219" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D219">
         <v>4.3</v>
@@ -6773,13 +6914,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B220" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D220">
         <v>11.4</v>
@@ -6796,13 +6937,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B221" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C221" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D221">
         <v>6</v>
@@ -6822,10 +6963,10 @@
         <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C222" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D222">
         <v>7.8</v>
@@ -6845,13 +6986,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B223" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C223" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D223">
         <v>4.4000000000000004</v>
@@ -6868,13 +7009,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B224" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C224" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="D224">
         <v>5</v>
@@ -6894,13 +7035,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B225" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C225" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D225">
         <v>5.5</v>
@@ -6920,13 +7061,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B226" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C226" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D226">
         <v>4.0999999999999996</v>
@@ -6943,13 +7084,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B227" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C227" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D227">
         <v>3.8</v>
@@ -6966,13 +7107,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B228" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C228" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D228">
         <v>3.8</v>
@@ -6989,13 +7130,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B229" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C229" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D229">
         <v>4.4000000000000004</v>
@@ -7012,13 +7153,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B230" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C230" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D230">
         <v>4.5</v>
@@ -7033,7 +7174,705 @@
         <v>44564</v>
       </c>
     </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>361</v>
+      </c>
+      <c r="B231" t="s">
+        <v>362</v>
+      </c>
+      <c r="C231" t="s">
+        <v>79</v>
+      </c>
+      <c r="D231">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F231">
+        <v>3.25</v>
+      </c>
+      <c r="G231">
+        <v>3.48</v>
+      </c>
+      <c r="H231" s="2">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>363</v>
+      </c>
+      <c r="B232" t="s">
+        <v>364</v>
+      </c>
+      <c r="C232" t="s">
+        <v>79</v>
+      </c>
+      <c r="D232">
+        <v>4.2</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+      <c r="G232">
+        <v>3.28</v>
+      </c>
+      <c r="H232" s="2">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>363</v>
+      </c>
+      <c r="B233" t="s">
+        <v>365</v>
+      </c>
+      <c r="C233" t="s">
+        <v>79</v>
+      </c>
+      <c r="D233">
+        <v>4</v>
+      </c>
+      <c r="F233">
+        <v>2.75</v>
+      </c>
+      <c r="G233">
+        <v>3.23</v>
+      </c>
+      <c r="H233" s="2">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>366</v>
+      </c>
+      <c r="B234" t="s">
+        <v>367</v>
+      </c>
+      <c r="C234" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234">
+        <v>4</v>
+      </c>
+      <c r="F234">
+        <v>2.5</v>
+      </c>
+      <c r="G234">
+        <v>3.17</v>
+      </c>
+      <c r="H234" s="2">
+        <v>44570</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>61</v>
+      </c>
+      <c r="B235" t="s">
+        <v>368</v>
+      </c>
+      <c r="C235" t="s">
+        <v>190</v>
+      </c>
+      <c r="D235">
+        <v>3.8</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+      <c r="G235">
+        <v>3.28</v>
+      </c>
+      <c r="H235" s="2">
+        <v>44573</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>196</v>
+      </c>
+      <c r="B236" t="s">
+        <v>369</v>
+      </c>
+      <c r="C236" t="s">
+        <v>94</v>
+      </c>
+      <c r="D236">
+        <v>5.2</v>
+      </c>
+      <c r="F236">
+        <v>3.25</v>
+      </c>
+      <c r="G236">
+        <v>3.87</v>
+      </c>
+      <c r="H236" s="2">
+        <v>44575</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>370</v>
+      </c>
+      <c r="B237" t="s">
+        <v>371</v>
+      </c>
+      <c r="C237" t="s">
+        <v>407</v>
+      </c>
+      <c r="D237">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F237">
+        <v>3.5</v>
+      </c>
+      <c r="G237">
+        <v>3.67</v>
+      </c>
+      <c r="H237" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>372</v>
+      </c>
+      <c r="B238" t="s">
+        <v>79</v>
+      </c>
+      <c r="C238" t="s">
+        <v>79</v>
+      </c>
+      <c r="D238">
+        <v>4.8</v>
+      </c>
+      <c r="E238">
+        <v>30</v>
+      </c>
+      <c r="F238">
+        <v>3</v>
+      </c>
+      <c r="G238">
+        <v>3.34</v>
+      </c>
+      <c r="H238" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>373</v>
+      </c>
+      <c r="B239" t="s">
+        <v>374</v>
+      </c>
+      <c r="C239" t="s">
+        <v>79</v>
+      </c>
+      <c r="D239">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E239">
+        <v>70</v>
+      </c>
+      <c r="F239">
+        <v>2.5</v>
+      </c>
+      <c r="G239">
+        <v>3.63</v>
+      </c>
+      <c r="H239" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>264</v>
+      </c>
+      <c r="B240" t="s">
+        <v>375</v>
+      </c>
+      <c r="C240" t="s">
+        <v>79</v>
+      </c>
+      <c r="D240">
+        <v>3.9</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+      <c r="G240">
+        <v>3.68</v>
+      </c>
+      <c r="H240" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>192</v>
+      </c>
+      <c r="B241" t="s">
+        <v>376</v>
+      </c>
+      <c r="C241" t="s">
+        <v>407</v>
+      </c>
+      <c r="D241">
+        <v>5.2</v>
+      </c>
+      <c r="E241">
+        <v>30</v>
+      </c>
+      <c r="F241">
+        <v>3.5</v>
+      </c>
+      <c r="G241">
+        <v>3.74</v>
+      </c>
+      <c r="H241" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>377</v>
+      </c>
+      <c r="B242" t="s">
+        <v>378</v>
+      </c>
+      <c r="C242" t="s">
+        <v>190</v>
+      </c>
+      <c r="D242">
+        <v>4.3</v>
+      </c>
+      <c r="E242">
+        <v>38</v>
+      </c>
+      <c r="F242">
+        <v>3.25</v>
+      </c>
+      <c r="G242">
+        <v>3.54</v>
+      </c>
+      <c r="H242" s="2">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>41</v>
+      </c>
+      <c r="B243" t="s">
+        <v>379</v>
+      </c>
+      <c r="C243" t="s">
+        <v>79</v>
+      </c>
+      <c r="D243">
+        <v>10</v>
+      </c>
+      <c r="F243">
+        <v>3.5</v>
+      </c>
+      <c r="G243">
+        <v>3.91</v>
+      </c>
+      <c r="H243" s="2">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>380</v>
+      </c>
+      <c r="B244" t="s">
+        <v>381</v>
+      </c>
+      <c r="C244" t="s">
+        <v>190</v>
+      </c>
+      <c r="D244">
+        <v>8</v>
+      </c>
+      <c r="E244">
+        <v>20</v>
+      </c>
+      <c r="F244">
+        <v>3.5</v>
+      </c>
+      <c r="G244">
+        <v>3.83</v>
+      </c>
+      <c r="H244" s="2">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>382</v>
+      </c>
+      <c r="B245" t="s">
+        <v>383</v>
+      </c>
+      <c r="C245" t="s">
+        <v>190</v>
+      </c>
+      <c r="D245">
+        <v>6.66</v>
+      </c>
+      <c r="E245">
+        <v>20</v>
+      </c>
+      <c r="F245">
+        <v>3</v>
+      </c>
+      <c r="G245">
+        <v>3.6</v>
+      </c>
+      <c r="H245" s="2">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>384</v>
+      </c>
+      <c r="B246" t="s">
+        <v>385</v>
+      </c>
+      <c r="C246" t="s">
+        <v>45</v>
+      </c>
+      <c r="D246">
+        <v>4.5</v>
+      </c>
+      <c r="E246">
+        <v>18</v>
+      </c>
+      <c r="F246">
+        <v>3.75</v>
+      </c>
+      <c r="G246">
+        <v>3.56</v>
+      </c>
+      <c r="H246" s="2">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>266</v>
+      </c>
+      <c r="B247" t="s">
+        <v>386</v>
+      </c>
+      <c r="C247" t="s">
+        <v>94</v>
+      </c>
+      <c r="D247">
+        <v>6</v>
+      </c>
+      <c r="F247">
+        <v>3.75</v>
+      </c>
+      <c r="G247">
+        <v>3.96</v>
+      </c>
+      <c r="H247" s="2">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>309</v>
+      </c>
+      <c r="B248" t="s">
+        <v>387</v>
+      </c>
+      <c r="C248" t="s">
+        <v>407</v>
+      </c>
+      <c r="D248">
+        <v>5.6</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+      <c r="G248">
+        <v>3.82</v>
+      </c>
+      <c r="H248" s="2">
+        <v>44590</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>388</v>
+      </c>
+      <c r="B249" t="s">
+        <v>389</v>
+      </c>
+      <c r="C249" t="s">
+        <v>188</v>
+      </c>
+      <c r="D249">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+      <c r="G249">
+        <v>3.38</v>
+      </c>
+      <c r="H249" s="2">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>390</v>
+      </c>
+      <c r="B250" t="s">
+        <v>391</v>
+      </c>
+      <c r="C250" t="s">
+        <v>190</v>
+      </c>
+      <c r="D250">
+        <v>4.7</v>
+      </c>
+      <c r="E250">
+        <v>36</v>
+      </c>
+      <c r="F250">
+        <v>3</v>
+      </c>
+      <c r="G250">
+        <v>3.45</v>
+      </c>
+      <c r="H250" s="2">
+        <v>44595</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>392</v>
+      </c>
+      <c r="B251" t="s">
+        <v>393</v>
+      </c>
+      <c r="C251" t="s">
+        <v>188</v>
+      </c>
+      <c r="D251">
+        <v>3.8</v>
+      </c>
+      <c r="F251">
+        <v>3.5</v>
+      </c>
+      <c r="G251">
+        <v>3.42</v>
+      </c>
+      <c r="H251" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>394</v>
+      </c>
+      <c r="B252" t="s">
+        <v>395</v>
+      </c>
+      <c r="C252" t="s">
+        <v>188</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="F252">
+        <v>2.5</v>
+      </c>
+      <c r="G252">
+        <v>3.41</v>
+      </c>
+      <c r="H252" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>396</v>
+      </c>
+      <c r="B253" t="s">
+        <v>397</v>
+      </c>
+      <c r="C253" t="s">
+        <v>188</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="F253">
+        <v>3.5</v>
+      </c>
+      <c r="G253">
+        <v>3.42</v>
+      </c>
+      <c r="H253" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>81</v>
+      </c>
+      <c r="B254" t="s">
+        <v>398</v>
+      </c>
+      <c r="C254" t="s">
+        <v>79</v>
+      </c>
+      <c r="D254">
+        <v>4.3</v>
+      </c>
+      <c r="F254">
+        <v>2.75</v>
+      </c>
+      <c r="G254">
+        <v>3.65</v>
+      </c>
+      <c r="H254" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>399</v>
+      </c>
+      <c r="B255" t="s">
+        <v>400</v>
+      </c>
+      <c r="C255" t="s">
+        <v>190</v>
+      </c>
+      <c r="D255">
+        <v>5.5</v>
+      </c>
+      <c r="E255">
+        <v>16</v>
+      </c>
+      <c r="F255">
+        <v>2.75</v>
+      </c>
+      <c r="G255">
+        <v>3.85</v>
+      </c>
+      <c r="H255" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>392</v>
+      </c>
+      <c r="B256" t="s">
+        <v>401</v>
+      </c>
+      <c r="C256" t="s">
+        <v>79</v>
+      </c>
+      <c r="D256">
+        <v>4.5</v>
+      </c>
+      <c r="F256">
+        <v>3.5</v>
+      </c>
+      <c r="G256">
+        <v>3.44</v>
+      </c>
+      <c r="H256" s="2">
+        <v>44597</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>402</v>
+      </c>
+      <c r="B257" t="s">
+        <v>403</v>
+      </c>
+      <c r="C257" t="s">
+        <v>79</v>
+      </c>
+      <c r="D257">
+        <v>4</v>
+      </c>
+      <c r="F257">
+        <v>3</v>
+      </c>
+      <c r="G257">
+        <v>3.11</v>
+      </c>
+      <c r="H257" s="2">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>404</v>
+      </c>
+      <c r="B258" t="s">
+        <v>405</v>
+      </c>
+      <c r="C258" t="s">
+        <v>45</v>
+      </c>
+      <c r="D258">
+        <v>5.3</v>
+      </c>
+      <c r="E258">
+        <v>16</v>
+      </c>
+      <c r="F258">
+        <v>2.75</v>
+      </c>
+      <c r="G258">
+        <v>3.46</v>
+      </c>
+      <c r="H258" s="2">
+        <v>44604</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>73</v>
+      </c>
+      <c r="B259" t="s">
+        <v>406</v>
+      </c>
+      <c r="C259" t="s">
+        <v>94</v>
+      </c>
+      <c r="D259">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F259">
+        <v>3.75</v>
+      </c>
+      <c r="G259">
+        <v>3.55</v>
+      </c>
+      <c r="H259" s="2">
+        <v>44604</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="C1:C255" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H231">
     <sortCondition ref="H1:H231"/>
   </sortState>
